--- a/aipg/src/00-sentence.xlsx
+++ b/aipg/src/00-sentence.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="句型" sheetId="1" r:id="rId1"/>
@@ -21,30 +21,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>句</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>句型</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -53,30 +29,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IF</t>
   </si>
   <si>
@@ -84,199 +36,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[当] … </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>候，…[。]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IFELSE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>如果/若 …，[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/那么] …[，/。]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>否则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>如果/若 …，[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/那么] …[。]</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>/^(?:如果|若)(.+)[，,\\n]\s*(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|那么)?(.+)[．.。]?$/</t>
-    </r>
+    <t>说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/^(?:如果|若)(.+)[，,\\n]\s*(则|那么)?(.+)[．.。]?$/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[当] … 时/的时候，…[。]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如果/若 …，[则/那么] …[，/。]否则 … [。]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如果/若 …，[则/那么] …[。]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -302,10 +86,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -351,12 +133,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -364,12 +146,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,153 +444,155 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.375" customWidth="1"/>
-    <col min="4" max="4" width="47.625" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="47.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -825,7 +612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
